--- a/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7360606060606061</v>
+        <v>0.7422948586993531</v>
       </c>
       <c r="C4">
-        <v>0.007054240247303833</v>
+        <v>0.009016503865830305</v>
       </c>
       <c r="D4">
-        <v>0.5198947882482309</v>
+        <v>0.528625812793739</v>
       </c>
       <c r="E4">
-        <v>0.009624395563454846</v>
+        <v>0.01072196733225927</v>
       </c>
       <c r="F4">
-        <v>0.6612121212121214</v>
+        <v>0.6712121212121215</v>
       </c>
       <c r="G4">
-        <v>0.01739690569514074</v>
+        <v>0.01727039179130962</v>
       </c>
       <c r="H4">
-        <v>0.4311351136910533</v>
+        <v>0.4384449530127743</v>
       </c>
       <c r="I4">
-        <v>0.008184823981271738</v>
+        <v>0.009676743610580019</v>
       </c>
       <c r="J4">
-        <v>0.8443848167981184</v>
+        <v>0.8488779848749722</v>
       </c>
       <c r="K4">
-        <v>0.006244038044549316</v>
+        <v>0.006735862174699347</v>
       </c>
       <c r="L4">
-        <v>0.6743820224719101</v>
+        <v>0.6788764044943821</v>
       </c>
       <c r="M4">
-        <v>0.01066144145262837</v>
+        <v>0.01011134270993252</v>
       </c>
       <c r="N4">
-        <v>0.6708196721311477</v>
+        <v>0.6768032786885246</v>
       </c>
       <c r="O4">
-        <v>0.007309133860443184</v>
+        <v>0.007961882304768464</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7804732720463057</v>
+        <v>0.7751208716377255</v>
       </c>
       <c r="C5">
-        <v>0.007672615977088681</v>
+        <v>0.007798473214449264</v>
       </c>
       <c r="D5">
-        <v>0.5645368794583231</v>
+        <v>0.5646480091188206</v>
       </c>
       <c r="E5">
-        <v>0.01012165993385539</v>
+        <v>0.01026665726121712</v>
       </c>
       <c r="F5">
-        <v>0.6945454545454547</v>
+        <v>0.6924242424242426</v>
       </c>
       <c r="G5">
-        <v>0.01691368796933612</v>
+        <v>0.01478701051161901</v>
       </c>
       <c r="H5">
-        <v>0.4782995716814555</v>
+        <v>0.4786713432551196</v>
       </c>
       <c r="I5">
-        <v>0.009225412828250013</v>
+        <v>0.009672225887748243</v>
       </c>
       <c r="J5">
-        <v>0.8648595036039605</v>
+        <v>0.8634884709199809</v>
       </c>
       <c r="K5">
-        <v>0.00633562993659087</v>
+        <v>0.00589587374242051</v>
       </c>
       <c r="L5">
-        <v>0.7168539325842697</v>
+        <v>0.7179775280898876</v>
       </c>
       <c r="M5">
-        <v>0.009653182959274753</v>
+        <v>0.009225000596050359</v>
       </c>
       <c r="N5">
-        <v>0.7108196721311474</v>
+        <v>0.7110655737704916</v>
       </c>
       <c r="O5">
-        <v>0.007222198695761795</v>
+        <v>0.007741090776358206</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7866409266409267</v>
+        <v>0.7887837837837837</v>
       </c>
       <c r="C6">
-        <v>0.01071422613534578</v>
+        <v>0.01076771220703432</v>
       </c>
       <c r="D6">
-        <v>0.5592639300414054</v>
+        <v>0.5692784616847711</v>
       </c>
       <c r="E6">
-        <v>0.01472798515037232</v>
+        <v>0.01375019685957013</v>
       </c>
       <c r="F6">
-        <v>0.6778571428571426</v>
+        <v>0.6857142857142855</v>
       </c>
       <c r="G6">
-        <v>0.02438203337841127</v>
+        <v>0.02314437652465251</v>
       </c>
       <c r="H6">
-        <v>0.4839499414234119</v>
+        <v>0.4944518068039707</v>
       </c>
       <c r="I6">
-        <v>0.01479404336040424</v>
+        <v>0.01385913735324232</v>
       </c>
       <c r="J6">
-        <v>0.8578655146873509</v>
+        <v>0.8619791380736325</v>
       </c>
       <c r="K6">
-        <v>0.008912242392054792</v>
+        <v>0.008232165242798239</v>
       </c>
       <c r="L6">
-        <v>0.718918918918919</v>
+        <v>0.7278378378378378</v>
       </c>
       <c r="M6">
-        <v>0.01620518709302798</v>
+        <v>0.01496094319496033</v>
       </c>
       <c r="N6">
-        <v>0.7076470588235294</v>
+        <v>0.7162745098039214</v>
       </c>
       <c r="O6">
-        <v>0.01117112771374296</v>
+        <v>0.01027808302295563</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8080694980694983</v>
+        <v>0.8149613899613901</v>
       </c>
       <c r="C7">
-        <v>0.01107483439133428</v>
+        <v>0.01137524436584969</v>
       </c>
       <c r="D7">
-        <v>0.5997468955717846</v>
+        <v>0.5994093957423945</v>
       </c>
       <c r="E7">
-        <v>0.01558134584494264</v>
+        <v>0.016313317204945</v>
       </c>
       <c r="F7">
-        <v>0.7021428571428572</v>
+        <v>0.6985714285714286</v>
       </c>
       <c r="G7">
-        <v>0.02349718162020842</v>
+        <v>0.02568573987398137</v>
       </c>
       <c r="H7">
-        <v>0.529895290218897</v>
+        <v>0.5348109205854494</v>
       </c>
       <c r="I7">
-        <v>0.01532335844480526</v>
+        <v>0.01648701767763472</v>
       </c>
       <c r="J7">
-        <v>0.8727411686343554</v>
+        <v>0.8727206841075552</v>
       </c>
       <c r="K7">
-        <v>0.008967725356284206</v>
+        <v>0.009086528200636379</v>
       </c>
       <c r="L7">
-        <v>0.7591891891891893</v>
+        <v>0.7632432432432433</v>
       </c>
       <c r="M7">
-        <v>0.0129600036026879</v>
+        <v>0.01464430011654394</v>
       </c>
       <c r="N7">
-        <v>0.7435294117647058</v>
+        <v>0.7454901960784315</v>
       </c>
       <c r="O7">
-        <v>0.01064672305326708</v>
+        <v>0.01076526006104017</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7842063492063491</v>
+        <v>0.7862896825396823</v>
       </c>
       <c r="C8">
-        <v>0.009988985217597945</v>
+        <v>0.007518899933755097</v>
       </c>
       <c r="D8">
-        <v>0.5048740654285364</v>
+        <v>0.5072010488069408</v>
       </c>
       <c r="E8">
-        <v>0.01073758121430105</v>
+        <v>0.009005068149967821</v>
       </c>
       <c r="F8">
-        <v>0.7214285714285714</v>
+        <v>0.7076190476190479</v>
       </c>
       <c r="G8">
-        <v>0.02025063366860302</v>
+        <v>0.018512578719314</v>
       </c>
       <c r="H8">
-        <v>0.3901023122289749</v>
+        <v>0.3976580169745308</v>
       </c>
       <c r="I8">
-        <v>0.008303218830517545</v>
+        <v>0.007567937333832986</v>
       </c>
       <c r="J8">
-        <v>0.8932536721906044</v>
+        <v>0.8908897599574559</v>
       </c>
       <c r="K8">
-        <v>0.006993765876737945</v>
+        <v>0.005968521461763632</v>
       </c>
       <c r="L8">
-        <v>0.6697222222222223</v>
+        <v>0.6851388888888889</v>
       </c>
       <c r="M8">
-        <v>0.009583301697233648</v>
+        <v>0.01016954978961671</v>
       </c>
       <c r="N8">
-        <v>0.6813978494623655</v>
+        <v>0.6902150537634409</v>
       </c>
       <c r="O8">
-        <v>0.007723434941146246</v>
+        <v>0.006985960174613837</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8075479452054795</v>
+        <v>0.8118972602739727</v>
       </c>
       <c r="C9">
-        <v>0.008968540982923656</v>
+        <v>0.008967452425855726</v>
       </c>
       <c r="D9">
-        <v>0.5168523972724934</v>
+        <v>0.5277963626253431</v>
       </c>
       <c r="E9">
-        <v>0.01108908532495978</v>
+        <v>0.01119449826749319</v>
       </c>
       <c r="F9">
-        <v>0.7169999999999999</v>
+        <v>0.7365</v>
       </c>
       <c r="G9">
-        <v>0.02054233065838251</v>
+        <v>0.0192756451285393</v>
       </c>
       <c r="H9">
-        <v>0.4070192521027803</v>
+        <v>0.4134860788239527</v>
       </c>
       <c r="I9">
-        <v>0.009351874408388861</v>
+        <v>0.009475565008501219</v>
       </c>
       <c r="J9">
-        <v>0.9030311189388499</v>
+        <v>0.9088056608295525</v>
       </c>
       <c r="K9">
-        <v>0.006143202185870722</v>
+        <v>0.006019351891565994</v>
       </c>
       <c r="L9">
-        <v>0.7109589041095888</v>
+        <v>0.7112328767123286</v>
       </c>
       <c r="M9">
-        <v>0.0105129894213597</v>
+        <v>0.009640424424387395</v>
       </c>
       <c r="N9">
-        <v>0.7122580645161292</v>
+        <v>0.7166666666666666</v>
       </c>
       <c r="O9">
-        <v>0.007954917828180696</v>
+        <v>0.007973710123966526</v>
       </c>
     </row>
   </sheetData>
